--- a/myapp/Motivasi Kerja terhadap Turnover Intention.xlsx
+++ b/myapp/Motivasi Kerja terhadap Turnover Intention.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSITE\DUNIA ARTIKEL PSIKOLOGI.COM\WEBSITE DUNIA ARTIKEL PSIKOLOGI\pengaruh motivasi kerja terhadap turnover intention\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092B77E2-002D-47D6-9FA7-D4C1D3883910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6C57C4-EE45-4DA8-98FA-6021B692FCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="69">
   <si>
     <t>Judul Artikel</t>
   </si>
@@ -88,6 +88,150 @@
   </si>
   <si>
     <t>Positif, Signifikan</t>
+  </si>
+  <si>
+    <t>Jumlah Sampel</t>
+  </si>
+  <si>
+    <t>Ada Nilai R-Squares?</t>
+  </si>
+  <si>
+    <t>Ada Nilai Q-Squares?</t>
+  </si>
+  <si>
+    <t>Ada Nilai F-Squares?</t>
+  </si>
+  <si>
+    <t>Ada Pengujian Goodness of Fit? SRMR, NFI, GoF, dst</t>
+  </si>
+  <si>
+    <t>Ada Validitas Diskriminan HTMT?</t>
+  </si>
+  <si>
+    <t>Ada Validitas Diskriminan Cross Loading?</t>
+  </si>
+  <si>
+    <t>Ada Validitas Diskriminan Fornel Larcker?</t>
+  </si>
+  <si>
+    <t>Variabel yang Menuju ke Turnover Intention</t>
+  </si>
+  <si>
+    <t>Jumlah Variabel yang Menuju ke Turnover Intention</t>
+  </si>
+  <si>
+    <t>Nilai R-Squares Turnover Intention</t>
+  </si>
+  <si>
+    <t>Beban Kerja, Motivasi Kerja, Kepuasan Kerja</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>Analisis Disiplin Kerja, Motivasi Kerja dan Lingkungan Kerja Terhadap Turnover Intention Karyawan di Klapa Resort</t>
+  </si>
+  <si>
+    <t>I Putu Candra Wiguna Antara, I Made Widiantara, Rifqi Nur Fakhrurozi, I Made Suidarma</t>
+  </si>
+  <si>
+    <t>https://journal.undiknas.ac.id/index.php/akuntansi/article/view/5272</t>
+  </si>
+  <si>
+    <t>Jurnal Ilmiah Akuntansi dan Bisnis</t>
+  </si>
+  <si>
+    <t>Negatif, Signifikan</t>
+  </si>
+  <si>
+    <t>Pengaruh Kompensasi dan Konflik Kerja terhadap Turnover Intention Karyawan dengan Motivasi Kerja sebagai Variabel Intervening di PT Definite Maji Arsana Jakarta</t>
+  </si>
+  <si>
+    <t>Suharso, Toyibah</t>
+  </si>
+  <si>
+    <t>https://journal.laaroiba.com/index.php/reslaj/article/view/5162</t>
+  </si>
+  <si>
+    <t>Reslaj: Religion Education Social Laa Roiba Journal</t>
+  </si>
+  <si>
+    <t>Ada, Motivasi Kerja</t>
+  </si>
+  <si>
+    <t>PENGARUH DIMENSI SINISME DALAM PERUBAHAN ORGANISASI TERHADAP TURNOVER INTENTIONS DI TVRI SUMATERA BARAT: MOTIVASI KERJA SEBAGAI VARIABEL MEDIASI</t>
+  </si>
+  <si>
+    <t>Hoiriah, Muhammad Fitrah Panabari Nasution, Rafidah Elyanis, Zaitul</t>
+  </si>
+  <si>
+    <t>Bussman Journal: Indonesian Journal of Business and Management</t>
+  </si>
+  <si>
+    <t>Pengaruh Kompensasi dan Motivasi Kerja Terhadap Turnover Intention PT Prasindo Travel Services (Studi Kasus Pada Karyawan PT Prasindo Travel Services)</t>
+  </si>
+  <si>
+    <t>Aisyah Misza Nur Cholis, Ahmad Dahlan, Koesmawan</t>
+  </si>
+  <si>
+    <t>https://www.jurnal.ched.itb-ad.ac.id/index.php/juneka/article/view/12</t>
+  </si>
+  <si>
+    <t>Jurnal Neo Ekonomi dan Humaniora</t>
+  </si>
+  <si>
+    <t>Pengaruh Kepemimpinan Transformasional Dan Budaya Organisasi Terhadap Turnover Intention Melalui Motivasi Kerja Pekerja Perkebunan Kelapa Sawit</t>
+  </si>
+  <si>
+    <t>Adry Van Mellyas Sebayang, Laura Lahindah</t>
+  </si>
+  <si>
+    <t>https://locus.rivierapublishing.id/index.php/jl/article/view/4232</t>
+  </si>
+  <si>
+    <t>Disiplin Kerja, Motivasi Kerja, Lingkungan Kerja</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>Kompensasi, Konflik Kerja, Motivasi Kerja</t>
+  </si>
+  <si>
+    <t>0.733</t>
+  </si>
+  <si>
+    <t>https://bussman.gapenas-publisher.org/index.php/home/article/view/411</t>
+  </si>
+  <si>
+    <t>Dimensi Sinisme dalam Perubahan Organisasi, Motivasi Kerja</t>
+  </si>
+  <si>
+    <t>0.620</t>
+  </si>
+  <si>
+    <t>Positif, Tidak Signifikan</t>
+  </si>
+  <si>
+    <t>Kompensasi, Motivasi Kerja</t>
+  </si>
+  <si>
+    <t>0.826</t>
+  </si>
+  <si>
+    <t>Informasi Tambahan 1</t>
+  </si>
+  <si>
+    <t>Dalam proses analisis data, ada beberapa item yang gugur, oleh karena nilai outer loading &lt; 0.7</t>
+  </si>
+  <si>
+    <t>Gaya Kepemimpinan Transformasional, Budaya Organisasi, Motivasi Kerja</t>
+  </si>
+  <si>
+    <t>JURNAL LOCUS: Penelitian &amp; Pengabdian</t>
+  </si>
+  <si>
+    <t>0.830</t>
   </si>
 </sst>
 </file>
@@ -132,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -141,6 +285,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -424,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,10 +591,22 @@
     <col min="10" max="10" width="39.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" customWidth="1"/>
     <col min="12" max="12" width="37.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="1"/>
+    <col min="13" max="13" width="41" style="1" customWidth="1"/>
+    <col min="14" max="14" width="47.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="39.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="51.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="58.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="42.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="41" style="1" customWidth="1"/>
+    <col min="20" max="20" width="40.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="59.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="40.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="42.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="55.140625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +643,44 @@
       <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -521,11 +716,407 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="M2" s="1">
+        <v>68</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="1">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1">
+        <v>93</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="1">
+        <v>3</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1">
+        <v>60</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="1">
+        <v>3</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="1">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="1">
+        <v>50</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1">
+        <v>232</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="1">
+        <v>3</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7D24519B-B82B-4215-9DBD-AD343EF2A485}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{6DC7AA36-55B0-4E26-AB20-0477EBA7B7B7}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{E99B539F-6486-4FCC-8CA4-65EB236313B5}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{783807E5-A245-4A90-B52E-19166C65A9DE}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{7CDF3C85-212F-4C07-95F4-A9C9D3213CDD}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{BFE0EB3D-9965-4D3B-8DC4-558BEF08FF38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
